--- a/Examples/descStats.xlsx
+++ b/Examples/descStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lr38/Desktop/masters-handbook/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C56C9-EEDD-4045-9446-6BA639313E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3F18A6-D7D8-5540-8702-F75767A1A717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21380" yWindow="3220" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{27B1E98A-9D20-C444-A7E5-83EBCA5C2C3E}"/>
+    <workbookView xWindow="21480" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{27B1E98A-9D20-C444-A7E5-83EBCA5C2C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$1:$A$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1:$A$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -153,12 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -183,7 +180,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1157,116 +1154,112 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>128.46666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>2.2079222438574768</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>8.5512460801809187</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>73.123809523809541</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>3.2279252485945813</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>-1.4163429834169987</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>1927</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>15</v>
       </c>
     </row>

--- a/Examples/descStats.xlsx
+++ b/Examples/descStats.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lr38/Desktop/masters-handbook/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3F18A6-D7D8-5540-8702-F75767A1A717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF66838-1EE1-4A4D-81E0-467552DA1FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{27B1E98A-9D20-C444-A7E5-83EBCA5C2C3E}"/>
+    <workbookView xWindow="20300" yWindow="3680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{27B1E98A-9D20-C444-A7E5-83EBCA5C2C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$1:$A$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1:$A$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$A$1:$A$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -185,7 +189,6 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{D5425371-20AD-774E-8918-C0E2501A351E}" formatIdx="0">
@@ -198,6 +201,62 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{EE41CDA8-B73E-7847-BB9D-DB28E24C9E84}">
+          <cx:dataPt idx="0"/>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -250,6 +309,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -765,20 +864,528 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -814,8 +1421,91 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6794500" y="0"/>
-              <a:ext cx="3403600" cy="5918200"/>
+              <a:off x="5956300" y="508000"/>
+              <a:ext cx="4826000" cy="6007100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE2A2B5-C752-3BB8-CCA5-35F3E668EE37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4464050" y="2171700"/>
+              <a:ext cx="7308850" cy="4216400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1273,7 +1963,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,4 +2047,95 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C98AC1A-5447-CA4A-9B1E-3F0D176DE90B}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>